--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -29,9 +29,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Standards</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,63 +764,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="14">
         <v>0.1</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
         <v>0.1</v>
@@ -911,16 +911,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="14">
         <v>0.1</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>0.1</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="14">
         <v>0.1</v>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
         <v>0.1</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="14">
         <v>0.15</v>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>0.15</v>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="14">
         <v>0.15</v>
@@ -1261,16 +1261,16 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5">
         <v>0.15</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="14">
         <v>0.15</v>
@@ -1361,16 +1361,16 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
         <v>0.15</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="14">
         <v>0.15</v>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5">
         <v>0.15</v>
@@ -1511,16 +1511,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="14">
         <v>0.15</v>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5">
         <v>0.15</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="14">
         <v>0.6</v>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
         <v>0.6</v>
@@ -1711,16 +1711,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="14">
         <v>0.6</v>
@@ -1761,16 +1761,16 @@
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5">
         <v>0.6</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="14">
         <v>0.2</v>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
         <v>0.2</v>
@@ -1911,16 +1911,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="14">
         <v>0.2</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5">
         <v>0.2</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="14">
         <v>0.2</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5">
         <v>0.2</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="14">
         <v>0.2</v>
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M28" s="15">
         <v>46</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" s="16">
         <v>1</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5">
         <v>0.2</v>
@@ -2211,16 +2211,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="14">
         <v>0.2</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30" s="15">
         <v>55</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" s="16">
         <v>1</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="5">
         <v>0.2</v>
@@ -2311,16 +2311,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="14">
         <v>0.3</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M32" s="15">
         <v>65</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="16">
         <v>1.2</v>
@@ -2361,16 +2361,16 @@
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
         <v>0.3</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="14">
         <v>0.3</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M34" s="15">
         <v>75</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" s="16">
         <v>1.6</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="5">
         <v>0.3</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="14">
         <v>0.3</v>
@@ -2544,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M36" s="15">
         <v>85</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" s="16">
         <v>2</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5">
         <v>0.3</v>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="14">
         <v>0.3</v>
@@ -2644,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38" s="15">
         <v>95</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P38" s="16">
         <v>2</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="5">
         <v>0.3</v>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -143,7 +143,7 @@
     <t>---</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>Standards</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -104,12 +104,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Depth of wahser face (Min)</t>
-  </si>
-  <si>
-    <t>Depth of wahser face (Max)</t>
-  </si>
-  <si>
     <t>Transitional Diameter (Max)</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Diameter of unthreaded shank (Max)</t>
   </si>
   <si>
-    <t>Diameter of wahser face (Min)</t>
-  </si>
-  <si>
     <t>Width Across the corners (Min)</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>Standards</t>
+  </si>
+  <si>
+    <t>Diameter of washer face (Min)</t>
+  </si>
+  <si>
+    <t>Depth of washer face (Max)</t>
+  </si>
+  <si>
+    <t>Depth of washer face (Min)</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -773,40 +773,40 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M28" s="15">
         <v>46</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P28" s="16">
         <v>1</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M30" s="15">
         <v>55</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P30" s="16">
         <v>1</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M32" s="15">
         <v>65</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P32" s="16">
         <v>1.2</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M34" s="15">
         <v>75</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P34" s="16">
         <v>1.6</v>
@@ -2544,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M36" s="15">
         <v>85</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P36" s="16">
         <v>2</v>
@@ -2644,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M38" s="15">
         <v>95</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P38" s="16">
         <v>2</v>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -177,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -185,273 +185,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +498,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,11 +520,11 @@
     <col min="16" max="16" width="13.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -772,1956 +533,1956 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="6">
         <v>0.1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
-      <c r="G2" s="16">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
         <v>1.46</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="6">
         <v>1.6</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="6">
         <v>2.27</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="6">
         <v>3.41</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="6">
         <v>3.02</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="6">
         <v>3.2</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="7">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.1</v>
       </c>
       <c r="F3" s="6">
         <v>0.25</v>
       </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
         <v>1.35</v>
       </c>
       <c r="I3" s="6">
         <v>1.6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>3.28</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>2.9</v>
       </c>
       <c r="M3" s="6">
         <v>3.2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>0.9</v>
       </c>
       <c r="O3" s="6">
         <v>1.3</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <v>0.1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="6">
         <v>2.6</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="6">
         <v>1.86</v>
       </c>
-      <c r="I4" s="15">
-        <v>2</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
         <v>3.07</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="6">
         <v>4.32</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="6">
         <v>3.82</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="6">
         <v>4</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="7">
         <v>1.2749999999999999</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="7">
         <v>1.5249999999999999</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.1</v>
       </c>
       <c r="F5" s="6">
         <v>0.25</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>2.6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>1.75</v>
       </c>
       <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>2.95</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>4.18</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>3.7</v>
       </c>
       <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>1.2</v>
       </c>
       <c r="O5" s="6">
         <v>1.6</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="6">
         <v>0.1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="6">
         <v>0.25</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="6">
         <v>3.1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="6">
         <v>2.36</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="6">
         <v>2.5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="6">
         <v>4.07</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="6">
         <v>5.45</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="6">
         <v>4.82</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="6">
         <v>5</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="7">
         <v>1.575</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="7">
         <v>2.125</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.1</v>
       </c>
       <c r="F7" s="6">
         <v>0.25</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>3.1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>2.25</v>
       </c>
       <c r="I7" s="6">
         <v>2.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>3.95</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>5.31</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>4.7</v>
       </c>
       <c r="M7" s="6">
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1.5</v>
       </c>
       <c r="O7" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="6">
         <v>0.15</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="6">
         <v>0.4</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="6">
         <v>3.6</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="6">
         <v>2.86</v>
       </c>
-      <c r="I8" s="15">
-        <v>3</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
         <v>4.57</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="6">
         <v>6.01</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="6">
         <v>5.32</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="6">
         <v>5.5</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="7">
         <v>1.875</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="7">
         <v>2.9249999999999998</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.15</v>
       </c>
       <c r="F9" s="6">
         <v>0.4</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>3.6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>2.75</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>4.45</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>5.88</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>5.2</v>
       </c>
       <c r="M9" s="6">
         <v>5.5</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>1.8</v>
       </c>
       <c r="O9" s="6">
         <v>3</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="6">
         <v>0.15</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="6">
         <v>0.4</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="6">
         <v>4.7</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="6">
         <v>3.82</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="6">
         <v>5.88</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="6">
         <v>7.66</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="6">
         <v>6.78</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="6">
         <v>7</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="7">
         <v>2.6749999999999998</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="6">
         <v>3.65</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>0.15</v>
       </c>
       <c r="F11" s="6">
         <v>0.4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4.7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>3.7</v>
       </c>
       <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>5.74</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>7.5</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>6.64</v>
       </c>
       <c r="M11" s="6">
         <v>7</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>2.6</v>
       </c>
       <c r="O11" s="6">
         <v>3.74</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="6">
         <v>0.15</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="6">
         <v>0.5</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="6">
         <v>5.7</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="6">
         <v>4.82</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="6">
         <v>5</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="6">
         <v>6.88</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="6">
         <v>8.7899999999999991</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="6">
         <v>7.78</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="6">
         <v>8</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="6">
         <v>3.35</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="6">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>0.15</v>
       </c>
       <c r="F13" s="6">
         <v>0.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>5.7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>4.7</v>
       </c>
       <c r="I13" s="6">
         <v>5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>6.74</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>7.64</v>
       </c>
       <c r="M13" s="6">
         <v>8</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>3.26</v>
       </c>
       <c r="O13" s="6">
         <v>4.24</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="6">
         <v>0.15</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="6">
         <v>0.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="6">
         <v>6.8</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="6">
         <v>5.82</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="6">
         <v>8.8800000000000008</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="6">
         <v>11.05</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="6">
         <v>9.7799999999999994</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="6">
         <v>10</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="6">
         <v>3.85</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="6">
         <v>5.45</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>0.15</v>
       </c>
       <c r="F15" s="6">
         <v>0.5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>6.8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>5.7</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>8.74</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>10.89</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>9.64</v>
       </c>
       <c r="M15" s="6">
         <v>10</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="6">
         <v>3.76</v>
       </c>
       <c r="O15" s="6">
         <v>5.54</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="6">
         <v>0.15</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="6">
         <v>0.6</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="6">
         <v>7.78</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="6">
         <v>11.63</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="6">
         <v>14.38</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="6">
         <v>12.73</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="6">
         <v>13</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="6">
         <v>5.15</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="6">
         <v>6.58</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="18" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>0.15</v>
       </c>
       <c r="F17" s="6">
         <v>0.6</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>7.64</v>
       </c>
       <c r="I17" s="6">
         <v>8</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>11.47</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>14.2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>12.57</v>
       </c>
       <c r="M17" s="6">
         <v>13</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="6">
         <v>5.0599999999999996</v>
       </c>
       <c r="O17" s="6">
         <v>6.69</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="6">
         <v>0.6</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="6">
         <v>0.15</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="6">
         <v>11.2</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="6">
         <v>9.7799999999999994</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="6">
         <v>10</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="6">
         <v>14.63</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="6">
         <v>17.77</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="6">
         <v>15.73</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="6">
         <v>16</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="6">
         <v>6.22</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="6">
         <v>6.58</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>0.6</v>
       </c>
       <c r="F19" s="6">
         <v>0.15</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>11.2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>9.64</v>
       </c>
       <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>14.47</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>17.59</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="6">
         <v>15.57</v>
       </c>
       <c r="M19" s="6">
         <v>16</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>6.11</v>
       </c>
       <c r="O19" s="6">
         <v>6.69</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="6">
         <v>0.6</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="6">
         <v>0.15</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="6">
         <v>13.7</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="6">
         <v>11.73</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="6">
         <v>12</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="6">
         <v>16.63</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="6">
         <v>20.03</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="6">
         <v>17.73</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="6">
         <v>18</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="6">
         <v>7.32</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="6">
         <v>7.68</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>0.6</v>
       </c>
       <c r="F21" s="6">
         <v>0.15</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>13.7</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>11.57</v>
       </c>
       <c r="I21" s="6">
         <v>12</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>16.47</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>19.850000000000001</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <v>23.67</v>
       </c>
       <c r="M21" s="6">
         <v>18</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="6">
         <v>7.21</v>
       </c>
       <c r="O21" s="6">
         <v>7.79</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="6">
         <v>0.2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="6">
         <v>0.8</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="6">
         <v>17.7</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="6">
         <v>15.73</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="6">
         <v>16</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="6">
         <v>22.49</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="6">
         <v>26.75</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="6">
         <v>23.16</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="6">
         <v>24</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="6">
         <v>9.82</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="6">
         <v>10.18</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>0.2</v>
       </c>
       <c r="F23" s="6">
         <v>0.8</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>17.7</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>15.57</v>
       </c>
       <c r="I23" s="6">
         <v>16</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>22</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>26.17</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <v>29.67</v>
       </c>
       <c r="M23" s="6">
         <v>24</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="6">
         <v>9.7100000000000009</v>
       </c>
       <c r="O23" s="6">
         <v>10.29</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="6">
         <v>0.2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="6">
         <v>0.8</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="6">
         <v>22.4</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="6">
         <v>19.670000000000002</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="6">
         <v>20</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="6">
         <v>28.19</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="6">
         <v>33.53</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="6">
         <v>29.16</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="6">
         <v>30</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="7">
         <v>12.285</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="7">
         <v>12.715</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>0.2</v>
       </c>
       <c r="F25" s="6">
         <v>0.8</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>22.4</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>19.48</v>
       </c>
       <c r="I25" s="6">
         <v>20</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>27.7</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>32.950000000000003</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="6">
         <v>35.380000000000003</v>
       </c>
       <c r="M25" s="6">
         <v>30</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="6">
         <v>12.15</v>
       </c>
       <c r="O25" s="6">
         <v>12.85</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="6">
         <v>0.2</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="6">
         <v>0.8</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="6">
         <v>26.4</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="6">
         <v>23.67</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="6">
         <v>24</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="6">
         <v>33.25</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="6">
         <v>39.979999999999997</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="8">
         <v>35.380000000000003</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="6">
         <v>36</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="7">
         <v>14.785</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="7">
         <v>15.215</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>0.2</v>
       </c>
       <c r="F27" s="6">
         <v>0.8</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>26.4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>23.48</v>
       </c>
       <c r="I27" s="6">
         <v>24</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>33.61</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>39.549999999999997</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="6">
         <v>35</v>
       </c>
       <c r="M27" s="6">
         <v>36</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
         <v>14.65</v>
       </c>
       <c r="O27" s="6">
         <v>15.35</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="6">
         <v>0.2</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="6">
         <v>0.8</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="6">
         <v>33.4</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="6">
         <v>30</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="6">
         <v>0</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="6">
         <v>0</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="6">
         <v>46</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="18" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
         <v>0.2</v>
       </c>
       <c r="F29" s="6">
         <v>0.8</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>33.4</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>29.48</v>
       </c>
       <c r="I29" s="6">
         <v>30</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>42.75</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>50.85</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="8">
         <v>45</v>
       </c>
       <c r="M29" s="6">
         <v>46</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="6">
         <v>18.28</v>
       </c>
       <c r="O29" s="6">
         <v>19.12</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="6">
         <v>0.2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="6">
         <v>0.8</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="6">
         <v>39.4</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="6">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="6">
         <v>36</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="6">
         <v>0</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="6">
         <v>0</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="6">
         <v>55</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>0.2</v>
       </c>
       <c r="F31" s="6">
         <v>0.8</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>39.4</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>35.380000000000003</v>
       </c>
       <c r="I31" s="6">
         <v>36</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>51.11</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>60.79</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="8">
         <v>53.8</v>
       </c>
       <c r="M31" s="6">
         <v>55</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
         <v>22.08</v>
       </c>
       <c r="O31" s="6">
         <v>22.92</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="6">
         <v>0.3</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="6">
         <v>45.6</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="6">
         <v>42</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="6">
         <v>0</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="6">
         <v>0</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="6">
         <v>65</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <v>0.3</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>45.6</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <v>41.38</v>
       </c>
       <c r="I33" s="6">
         <v>42</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>59.95</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>71.3</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="8">
         <v>63.1</v>
       </c>
       <c r="M33" s="6">
         <v>65</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="6">
         <v>25.58</v>
       </c>
       <c r="O33" s="6">
         <v>26.42</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="6">
         <v>0.3</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="6">
         <v>1</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="6">
         <v>52.6</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="6">
         <v>0</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="6">
         <v>48</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="6">
         <v>0</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="6">
         <v>0</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="6">
         <v>75</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="O34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="6">
         <v>0.3</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>52.6</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>47.38</v>
       </c>
       <c r="I35" s="6">
         <v>48</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>69.45</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>82.6</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="8">
         <v>73.099999999999994</v>
       </c>
       <c r="M35" s="6">
         <v>75</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="6">
         <v>29.58</v>
       </c>
       <c r="O35" s="6">
         <v>30.42</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="6">
         <v>0.3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="6">
         <v>1</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="6">
         <v>63</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="6">
         <v>0</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="6">
         <v>56</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="6">
         <v>0</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="6">
         <v>0</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="6">
         <v>85</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="P36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="6">
         <v>0.3</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>63</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>55.26</v>
       </c>
       <c r="I37" s="6">
         <v>56</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>78.66</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>93.56</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="8">
         <v>82.8</v>
       </c>
       <c r="M37" s="6">
         <v>85</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <v>34.5</v>
       </c>
       <c r="O37" s="6">
         <v>35.5</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="A38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="6">
         <v>0.3</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="6">
         <v>71</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="6">
         <v>0</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="6">
         <v>64</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="6">
         <v>0</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="6">
         <v>0</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="6">
         <v>95</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="O38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="P38" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <v>0.3</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>71</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>63.26</v>
       </c>
       <c r="I39" s="6">
         <v>64</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>88.16</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>104.86</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <v>92.8</v>
       </c>
       <c r="M39" s="6">
         <v>95</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <v>39.5</v>
       </c>
       <c r="O39" s="6">
         <v>40.5</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -80,9 +80,6 @@
     <t>M24 X 3</t>
   </si>
   <si>
-    <t>M30 X3.5</t>
-  </si>
-  <si>
     <t>M36 X 4</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Depth of washer face (Min)</t>
+  </si>
+  <si>
+    <t>M30 X 3.5</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -534,40 +534,40 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>13</v>
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
@@ -1478,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>14</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>15</v>
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>15</v>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>16</v>
@@ -1778,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
@@ -1878,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6">
         <v>0.2</v>
@@ -1905,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="6">
         <v>46</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="6">
         <v>1</v>
@@ -1928,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6">
         <v>0.2</v>
@@ -1978,10 +1978,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="6">
         <v>0.2</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="6">
         <v>55</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="6">
         <v>0.2</v>
@@ -2078,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="6">
         <v>0.3</v>
@@ -2105,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32" s="6">
         <v>65</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P32" s="6">
         <v>1.2</v>
@@ -2128,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6">
         <v>0.3</v>
@@ -2178,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="6">
         <v>0.3</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" s="6">
         <v>75</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" s="6">
         <v>1.6</v>
@@ -2228,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="6">
         <v>0.3</v>
@@ -2278,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="6">
         <v>0.3</v>
@@ -2305,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36" s="6">
         <v>85</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="6">
         <v>2</v>
@@ -2328,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="6">
         <v>0.3</v>
@@ -2378,10 +2378,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="6">
         <v>0.3</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="6">
         <v>95</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P38" s="6">
         <v>2</v>
@@ -2428,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="6">
         <v>0.3</v>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -35,9 +35,6 @@
     <t>Hex Bolt</t>
   </si>
   <si>
-    <t>ISO-4014-2011</t>
-  </si>
-  <si>
     <t>Product Grade</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Thickness of the head (Min)</t>
   </si>
   <si>
-    <t>Thickness of the head (Max))</t>
-  </si>
-  <si>
     <t>Radius Under Head (Min)</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>M30 X 3.5</t>
+  </si>
+  <si>
+    <t>Thickness of the head (Max)</t>
+  </si>
+  <si>
+    <t>ISO 4014</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,49 +525,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -575,13 +575,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6">
         <v>0.1</v>
@@ -625,13 +625,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6">
         <v>0.1</v>
@@ -675,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>0.1</v>
@@ -725,13 +725,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>0.1</v>
@@ -775,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>0.1</v>
@@ -825,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>0.1</v>
@@ -875,13 +875,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>0.15</v>
@@ -925,13 +925,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>0.15</v>
@@ -975,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
         <v>0.15</v>
@@ -1025,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <v>0.15</v>
@@ -1075,13 +1075,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6">
         <v>0.15</v>
@@ -1125,13 +1125,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6">
         <v>0.15</v>
@@ -1175,13 +1175,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6">
         <v>0.15</v>
@@ -1225,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6">
         <v>0.15</v>
@@ -1275,13 +1275,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6">
         <v>0.15</v>
@@ -1325,13 +1325,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6">
         <v>0.15</v>
@@ -1375,13 +1375,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6">
         <v>0.6</v>
@@ -1425,13 +1425,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6">
         <v>0.6</v>
@@ -1475,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="6">
         <v>0.6</v>
@@ -1525,13 +1525,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="6">
         <v>0.6</v>
@@ -1575,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6">
         <v>0.2</v>
@@ -1625,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="6">
         <v>0.2</v>
@@ -1675,13 +1675,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6">
         <v>0.2</v>
@@ -1725,13 +1725,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6">
         <v>0.2</v>
@@ -1775,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="6">
         <v>0.2</v>
@@ -1825,13 +1825,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="6">
         <v>0.2</v>
@@ -1875,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
         <v>0.2</v>
@@ -1905,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M28" s="6">
         <v>46</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P28" s="6">
         <v>1</v>
@@ -1925,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="6">
         <v>0.2</v>
@@ -1975,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="6">
         <v>0.2</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M30" s="6">
         <v>55</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
@@ -2025,13 +2025,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="6">
         <v>0.2</v>
@@ -2075,13 +2075,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="6">
         <v>0.3</v>
@@ -2105,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M32" s="6">
         <v>65</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P32" s="6">
         <v>1.2</v>
@@ -2125,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="6">
         <v>0.3</v>
@@ -2175,13 +2175,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6">
         <v>0.3</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M34" s="6">
         <v>75</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P34" s="6">
         <v>1.6</v>
@@ -2225,13 +2225,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6">
         <v>0.3</v>
@@ -2275,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6">
         <v>0.3</v>
@@ -2305,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M36" s="6">
         <v>85</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P36" s="6">
         <v>2</v>
@@ -2325,13 +2325,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="6">
         <v>0.3</v>
@@ -2375,13 +2375,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="6">
         <v>0.3</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M38" s="6">
         <v>95</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P38" s="6">
         <v>2</v>
@@ -2425,13 +2425,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="6">
         <v>0.3</v>

--- a/ISO 4014 Hex Bolt.xlsx
+++ b/ISO 4014 Hex Bolt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
   <si>
     <t>Product</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Radius Under Head (Min)</t>
-  </si>
-  <si>
-    <t>---</t>
   </si>
   <si>
     <t>Standards</t>
@@ -497,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -534,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>24</v>
@@ -549,7 +546,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>27</v>
@@ -564,7 +561,7 @@
         <v>30</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>31</v>
@@ -575,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -625,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -675,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
@@ -725,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -775,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -825,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -875,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -925,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -975,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>22</v>
@@ -1025,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1075,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>22</v>
@@ -1125,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
@@ -1175,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>22</v>
@@ -1225,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -1275,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>22</v>
@@ -1325,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
@@ -1375,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>22</v>
@@ -1425,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
@@ -1475,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>22</v>
@@ -1525,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>23</v>
@@ -1575,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>22</v>
@@ -1625,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>23</v>
@@ -1675,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>22</v>
@@ -1725,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>23</v>
@@ -1775,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>22</v>
@@ -1825,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>23</v>
@@ -1875,13 +1872,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="6">
         <v>0.2</v>
@@ -1904,18 +1901,12 @@
       <c r="K28" s="6">
         <v>0</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L28" s="8"/>
       <c r="M28" s="6">
         <v>46</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="6">
         <v>1</v>
       </c>
@@ -1925,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="6">
         <v>0.2</v>
@@ -1975,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>22</v>
@@ -2004,18 +1995,12 @@
       <c r="K30" s="6">
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L30" s="8"/>
       <c r="M30" s="6">
         <v>55</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="6">
         <v>1</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
@@ -2075,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>22</v>
@@ -2104,18 +2089,12 @@
       <c r="K32" s="6">
         <v>0</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L32" s="8"/>
       <c r="M32" s="6">
         <v>65</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="6">
         <v>1.2</v>
       </c>
@@ -2125,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2175,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>22</v>
@@ -2204,18 +2183,12 @@
       <c r="K34" s="6">
         <v>0</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L34" s="8"/>
       <c r="M34" s="6">
         <v>75</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="6">
         <v>1.6</v>
       </c>
@@ -2225,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>23</v>
@@ -2275,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>22</v>
@@ -2304,18 +2277,12 @@
       <c r="K36" s="6">
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L36" s="8"/>
       <c r="M36" s="6">
         <v>85</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="6">
         <v>2</v>
       </c>
@@ -2325,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>23</v>
@@ -2375,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>22</v>
@@ -2404,18 +2371,12 @@
       <c r="K38" s="6">
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L38" s="8"/>
       <c r="M38" s="6">
         <v>95</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="6">
         <v>2</v>
       </c>
@@ -2425,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>23</v>
